--- a/Main/SASdata/single_moments_total.xlsx
+++ b/Main/SASdata/single_moments_total.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frederik\Desktop\github\Main\SASdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frederik\Desktop\Speciale_retirement\Main\SASdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91BF87DE-8A4D-48BB-9910-84CA0CA08DB5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69503F46-B41A-49DA-98C9-8D85B2A0702E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4B0926C6-204C-4A42-9FCD-0A17D8A10150}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="4">
   <si>
     <t>Køn (mand)</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>Moments</t>
+  </si>
+  <si>
+    <t>SE</t>
   </si>
 </sst>
 </file>
@@ -89,12 +92,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,7 +416,7 @@
   <dimension ref="A1:D89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -431,6 +435,9 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -440,9 +447,11 @@
         <v>0</v>
       </c>
       <c r="C2" s="3">
-        <v>3.4167929939914903E-2</v>
-      </c>
-      <c r="D2" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -453,9 +462,11 @@
         <v>0</v>
       </c>
       <c r="C3" s="3">
-        <v>4.8056503564320202E-2</v>
-      </c>
-      <c r="D3" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -466,9 +477,11 @@
         <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>24.107340429565902</v>
-      </c>
-      <c r="D4" s="4"/>
+        <v>0.19821194941125159</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.3986526966193043</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -479,9 +492,11 @@
         <v>0</v>
       </c>
       <c r="C5" s="3">
-        <v>16.935455939257</v>
-      </c>
-      <c r="D5" s="4"/>
+        <v>0.10102968283226341</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.30136802421470599</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -492,9 +507,11 @@
         <v>0</v>
       </c>
       <c r="C6" s="3">
-        <v>21.1667357908211</v>
-      </c>
-      <c r="D6" s="4"/>
+        <v>0.1539974545875275</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.36094630981364789</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -505,9 +522,11 @@
         <v>0</v>
       </c>
       <c r="C7" s="3">
-        <v>12.423303184423</v>
-      </c>
-      <c r="D7" s="4"/>
+        <v>0.1279416639045409</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.33402484120477982</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -518,9 +537,11 @@
         <v>0</v>
       </c>
       <c r="C8" s="3">
-        <v>7.1196275078548004</v>
-      </c>
-      <c r="D8" s="4"/>
+        <v>5.9151991164017918E-2</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.23590895088010089</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -531,9 +552,11 @@
         <v>0</v>
       </c>
       <c r="C9" s="3">
-        <v>4.3154353470922997</v>
-      </c>
-      <c r="D9" s="4"/>
+        <v>0.16230650154798759</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.36873174680686333</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -544,9 +567,11 @@
         <v>0</v>
       </c>
       <c r="C10" s="3">
-        <v>4.1437865748793898</v>
-      </c>
-      <c r="D10" s="4"/>
+        <v>6.8564920273348526E-2</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.2527128251222282</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -557,9 +582,11 @@
         <v>0</v>
       </c>
       <c r="C11" s="3">
-        <v>3.6167201707308601</v>
-      </c>
-      <c r="D11" s="4"/>
+        <v>3.5986700567181687E-2</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0.18625696751925741</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -570,9 +597,11 @@
         <v>0</v>
       </c>
       <c r="C12" s="3">
-        <v>2.7348390404248799</v>
-      </c>
-      <c r="D12" s="4"/>
+        <v>2.5153374233128831E-2</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0.15659081070681319</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -582,9 +611,11 @@
         <v>1</v>
       </c>
       <c r="C13" s="3">
-        <v>6.3742824983736707E-2</v>
-      </c>
-      <c r="D13" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -595,9 +626,11 @@
         <v>1</v>
       </c>
       <c r="C14" s="3">
-        <v>8.2689909412321599E-2</v>
-      </c>
-      <c r="D14" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -608,9 +641,11 @@
         <v>1</v>
       </c>
       <c r="C15" s="3">
-        <v>29.788043484928501</v>
-      </c>
-      <c r="D15" s="4"/>
+        <v>0.2867952629176776</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0.4522651214560523</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -621,9 +656,11 @@
         <v>1</v>
       </c>
       <c r="C16" s="3">
-        <v>18.758200081808699</v>
-      </c>
-      <c r="D16" s="4"/>
+        <v>0.138746173299614</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0.34568146131131688</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -634,9 +671,11 @@
         <v>1</v>
       </c>
       <c r="C17" s="3">
-        <v>20.342023606425801</v>
-      </c>
-      <c r="D17" s="4"/>
+        <v>0.13847284756041531</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0.34539559645271289</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -647,9 +686,11 @@
         <v>1</v>
       </c>
       <c r="C18" s="3">
-        <v>10.9486635219967</v>
-      </c>
-      <c r="D18" s="4"/>
+        <v>0.1150426679044525</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0.31907342801599498</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -660,9 +701,11 @@
         <v>1</v>
       </c>
       <c r="C19" s="3">
-        <v>5.8340679910491797</v>
-      </c>
-      <c r="D19" s="4"/>
+        <v>5.212583914703172E-2</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0.2222807594917956</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -673,9 +716,11 @@
         <v>1</v>
       </c>
       <c r="C20" s="3">
-        <v>3.90456703805663</v>
-      </c>
-      <c r="D20" s="4"/>
+        <v>0.16036505867014339</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0.36694428272949692</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
@@ -686,9 +731,11 @@
         <v>1</v>
       </c>
       <c r="C21" s="3">
-        <v>3.3547928593973602</v>
-      </c>
-      <c r="D21" s="4"/>
+        <v>4.6899082568807343E-2</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0.2114227012953234</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
@@ -699,9 +746,11 @@
         <v>1</v>
       </c>
       <c r="C22" s="3">
-        <v>2.6653404501407101</v>
-      </c>
-      <c r="D22" s="4"/>
+        <v>2.390140669737334E-2</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0.15274203565246899</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
@@ -712,9 +761,11 @@
         <v>1</v>
       </c>
       <c r="C23" s="3">
-        <v>1.9066518923603699</v>
-      </c>
-      <c r="D23" s="4"/>
+        <v>1.862348178137652E-2</v>
+      </c>
+      <c r="D23" s="5">
+        <v>0.13519115247572699</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -724,9 +775,11 @@
         <v>2</v>
       </c>
       <c r="C24" s="3">
-        <v>4.8936475485727E-2</v>
-      </c>
-      <c r="D24" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -737,9 +790,11 @@
         <v>2</v>
       </c>
       <c r="C25" s="3">
-        <v>6.5329320514930705E-2</v>
-      </c>
-      <c r="D25" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -750,9 +805,11 @@
         <v>2</v>
       </c>
       <c r="C26" s="3">
-        <v>26.935008318028</v>
-      </c>
-      <c r="D26" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
@@ -763,9 +820,11 @@
         <v>2</v>
       </c>
       <c r="C27" s="3">
-        <v>17.840953769352499</v>
-      </c>
-      <c r="D27" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
@@ -776,9 +835,11 @@
         <v>2</v>
       </c>
       <c r="C28" s="3">
-        <v>20.757914093522999</v>
-      </c>
-      <c r="D28" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
@@ -789,9 +850,11 @@
         <v>2</v>
       </c>
       <c r="C29" s="3">
-        <v>11.6938292451712</v>
-      </c>
-      <c r="D29" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
@@ -802,9 +865,11 @@
         <v>2</v>
       </c>
       <c r="C30" s="3">
-        <v>6.4854690936499404</v>
-      </c>
-      <c r="D30" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
@@ -815,9 +880,11 @@
         <v>2</v>
       </c>
       <c r="C31" s="3">
-        <v>4.1133646766001997</v>
-      </c>
-      <c r="D31" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
@@ -828,9 +895,11 @@
         <v>2</v>
       </c>
       <c r="C32" s="3">
-        <v>3.75680982563743</v>
-      </c>
-      <c r="D32" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
@@ -841,9 +910,11 @@
         <v>2</v>
       </c>
       <c r="C33" s="3">
-        <v>3.1514858475054002</v>
-      </c>
-      <c r="D33" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
@@ -854,174 +925,176 @@
         <v>2</v>
       </c>
       <c r="C34" s="3">
-        <v>2.3313829909222301</v>
-      </c>
-      <c r="D34" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C35" s="3"/>
+      <c r="C35" s="4"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C36" s="3"/>
+      <c r="C36" s="4"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C37" s="3"/>
+      <c r="C37" s="4"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C38" s="3"/>
+      <c r="C38" s="4"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C39" s="3"/>
+      <c r="C39" s="4"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C40" s="3"/>
+      <c r="C40" s="4"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C41" s="3"/>
+      <c r="C41" s="4"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C42" s="3"/>
+      <c r="C42" s="4"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C43" s="3"/>
+      <c r="C43" s="4"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C44" s="3"/>
+      <c r="C44" s="4"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C45" s="3"/>
+      <c r="C45" s="4"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C46" s="3"/>
+      <c r="C46" s="4"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C47" s="3"/>
+      <c r="C47" s="4"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C48" s="3"/>
+      <c r="C48" s="4"/>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C49" s="3"/>
+      <c r="C49" s="4"/>
     </row>
     <row r="50" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C50" s="3"/>
+      <c r="C50" s="4"/>
     </row>
     <row r="51" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C51" s="3"/>
+      <c r="C51" s="4"/>
     </row>
     <row r="52" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C52" s="3"/>
+      <c r="C52" s="4"/>
     </row>
     <row r="53" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C53" s="3"/>
+      <c r="C53" s="4"/>
     </row>
     <row r="54" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C54" s="3"/>
+      <c r="C54" s="4"/>
     </row>
     <row r="55" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C55" s="3"/>
+      <c r="C55" s="4"/>
     </row>
     <row r="56" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C56" s="3"/>
+      <c r="C56" s="4"/>
     </row>
     <row r="57" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C57" s="3"/>
+      <c r="C57" s="4"/>
     </row>
     <row r="58" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C58" s="3"/>
+      <c r="C58" s="4"/>
     </row>
     <row r="59" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C59" s="3"/>
+      <c r="C59" s="4"/>
     </row>
     <row r="60" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C60" s="3"/>
+      <c r="C60" s="4"/>
     </row>
     <row r="61" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C61" s="3"/>
+      <c r="C61" s="4"/>
     </row>
     <row r="62" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C62" s="3"/>
+      <c r="C62" s="4"/>
     </row>
     <row r="63" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C63" s="3"/>
+      <c r="C63" s="4"/>
     </row>
     <row r="64" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C64" s="3"/>
+      <c r="C64" s="4"/>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C65" s="3"/>
+      <c r="C65" s="4"/>
     </row>
     <row r="66" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C66" s="3"/>
+      <c r="C66" s="4"/>
     </row>
     <row r="67" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C67" s="3"/>
+      <c r="C67" s="4"/>
     </row>
     <row r="68" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C68" s="3"/>
+      <c r="C68" s="4"/>
     </row>
     <row r="69" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C69" s="3"/>
+      <c r="C69" s="4"/>
     </row>
     <row r="70" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C70" s="3"/>
+      <c r="C70" s="4"/>
     </row>
     <row r="71" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C71" s="3"/>
+      <c r="C71" s="4"/>
     </row>
     <row r="72" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C72" s="3"/>
+      <c r="C72" s="4"/>
     </row>
     <row r="73" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C73" s="3"/>
+      <c r="C73" s="4"/>
     </row>
     <row r="74" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C74" s="3"/>
+      <c r="C74" s="4"/>
     </row>
     <row r="75" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C75" s="3"/>
+      <c r="C75" s="4"/>
     </row>
     <row r="76" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C76" s="3"/>
+      <c r="C76" s="4"/>
     </row>
     <row r="77" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C77" s="3"/>
+      <c r="C77" s="4"/>
     </row>
     <row r="78" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C78" s="3"/>
+      <c r="C78" s="4"/>
     </row>
     <row r="79" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C79" s="3"/>
+      <c r="C79" s="4"/>
     </row>
     <row r="80" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C80" s="3"/>
+      <c r="C80" s="4"/>
     </row>
     <row r="81" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C81" s="3"/>
+      <c r="C81" s="4"/>
     </row>
     <row r="82" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C82" s="3"/>
+      <c r="C82" s="4"/>
     </row>
     <row r="83" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C83" s="3"/>
+      <c r="C83" s="4"/>
     </row>
     <row r="84" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C84" s="3"/>
+      <c r="C84" s="4"/>
     </row>
     <row r="85" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C85" s="3"/>
+      <c r="C85" s="4"/>
     </row>
     <row r="86" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C86" s="3"/>
+      <c r="C86" s="4"/>
     </row>
     <row r="87" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C87" s="3"/>
+      <c r="C87" s="4"/>
     </row>
     <row r="88" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C88" s="3"/>
+      <c r="C88" s="4"/>
     </row>
     <row r="89" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C89" s="3"/>
+      <c r="C89" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Main/SASdata/single_moments_total.xlsx
+++ b/Main/SASdata/single_moments_total.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frederik\Desktop\Speciale_retirement\Main\SASdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frederik\Desktop\Ny\SASdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69503F46-B41A-49DA-98C9-8D85B2A0702E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E6441C9-5922-4429-A265-D6CFBD7C6F62}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4B0926C6-204C-4A42-9FCD-0A17D8A10150}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Køn (mand)</t>
   </si>
@@ -66,18 +66,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -92,13 +86,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -413,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDD2B8AE-94EE-4382-9540-84599FDFEDB4}">
-  <dimension ref="A1:D89"/>
+  <dimension ref="A1:D78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -426,675 +419,511 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="3">
         <v>58</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3">
-        <v>0</v>
-      </c>
-      <c r="D2" s="5">
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="3">
         <f>A2+1</f>
         <v>59</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0</v>
-      </c>
-      <c r="D3" s="5">
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="3">
         <f t="shared" ref="A4:A12" si="0">A3+1</f>
         <v>60</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3">
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4">
         <v>0.19821194941125159</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>0.3986526966193043</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="3">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3">
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4">
         <v>0.10102968283226341</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>0.30136802421470599</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="3">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3">
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4">
         <v>0.1539974545875275</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>0.36094630981364789</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="3">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7" s="3">
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4">
         <v>0.1279416639045409</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>0.33402484120477982</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="3">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3">
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4">
         <v>5.9151991164017918E-2</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>0.23590895088010089</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="3">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9" s="3">
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4">
         <v>0.16230650154798759</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>0.36873174680686333</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="3">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10" s="3">
+      <c r="B10" s="3">
+        <v>0</v>
+      </c>
+      <c r="C10" s="4">
         <v>6.8564920273348526E-2</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>0.2527128251222282</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="3">
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11" s="3">
+      <c r="B11" s="3">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4">
         <v>3.5986700567181687E-2</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>0.18625696751925741</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="3">
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12" s="3">
+      <c r="B12" s="3">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4">
         <v>2.5153374233128831E-2</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>0.15659081070681319</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="3">
         <v>58</v>
       </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3">
-        <v>0</v>
-      </c>
-      <c r="D13" s="5">
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0</v>
+      </c>
+      <c r="D13" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="3">
         <f>A13+1</f>
         <v>59</v>
       </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" s="3">
-        <v>0</v>
-      </c>
-      <c r="D14" s="5">
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0</v>
+      </c>
+      <c r="D14" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="3">
         <f t="shared" ref="A15:A23" si="1">A14+1</f>
         <v>60</v>
       </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" s="3">
+      <c r="B15" s="3">
+        <v>1</v>
+      </c>
+      <c r="C15" s="4">
         <v>0.2867952629176776</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <v>0.4522651214560523</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="3">
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" s="3">
+      <c r="B16" s="3">
+        <v>1</v>
+      </c>
+      <c r="C16" s="4">
         <v>0.138746173299614</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <v>0.34568146131131688</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="3">
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" s="3">
+      <c r="B17" s="3">
+        <v>1</v>
+      </c>
+      <c r="C17" s="4">
         <v>0.13847284756041531</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <v>0.34539559645271289</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="3">
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18" s="3">
+      <c r="B18" s="3">
+        <v>1</v>
+      </c>
+      <c r="C18" s="4">
         <v>0.1150426679044525</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <v>0.31907342801599498</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="3">
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19" s="3">
+      <c r="B19" s="3">
+        <v>1</v>
+      </c>
+      <c r="C19" s="4">
         <v>5.212583914703172E-2</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="4">
         <v>0.2222807594917956</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="3">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20" s="3">
+      <c r="B20" s="3">
+        <v>1</v>
+      </c>
+      <c r="C20" s="4">
         <v>0.16036505867014339</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="4">
         <v>0.36694428272949692</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="3">
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21" s="3">
+      <c r="B21" s="3">
+        <v>1</v>
+      </c>
+      <c r="C21" s="4">
         <v>4.6899082568807343E-2</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="4">
         <v>0.2114227012953234</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="3">
         <f t="shared" si="1"/>
         <v>67</v>
       </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22" s="3">
+      <c r="B22" s="3">
+        <v>1</v>
+      </c>
+      <c r="C22" s="4">
         <v>2.390140669737334E-2</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="4">
         <v>0.15274203565246899</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="A23" s="3">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23" s="3">
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="4">
         <v>1.862348178137652E-2</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="4">
         <v>0.13519115247572699</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>58</v>
-      </c>
-      <c r="B24">
-        <v>2</v>
-      </c>
-      <c r="C24" s="3">
-        <v>0</v>
-      </c>
-      <c r="D24" s="3">
-        <v>0</v>
-      </c>
+      <c r="C24" s="1"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <f>A24+1</f>
-        <v>59</v>
-      </c>
-      <c r="B25">
-        <v>2</v>
-      </c>
-      <c r="C25" s="3">
-        <v>0</v>
-      </c>
-      <c r="D25" s="3">
-        <v>0</v>
-      </c>
+      <c r="C25" s="1"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <f t="shared" ref="A26:A34" si="2">A25+1</f>
-        <v>60</v>
-      </c>
-      <c r="B26">
-        <v>2</v>
-      </c>
-      <c r="C26" s="3">
-        <v>0</v>
-      </c>
-      <c r="D26" s="3">
-        <v>0</v>
-      </c>
+      <c r="C26" s="1"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <f t="shared" si="2"/>
-        <v>61</v>
-      </c>
-      <c r="B27">
-        <v>2</v>
-      </c>
-      <c r="C27" s="3">
-        <v>0</v>
-      </c>
-      <c r="D27" s="3">
-        <v>0</v>
-      </c>
+      <c r="C27" s="1"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <f t="shared" si="2"/>
-        <v>62</v>
-      </c>
-      <c r="B28">
-        <v>2</v>
-      </c>
-      <c r="C28" s="3">
-        <v>0</v>
-      </c>
-      <c r="D28" s="3">
-        <v>0</v>
-      </c>
+      <c r="C28" s="1"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <f t="shared" si="2"/>
-        <v>63</v>
-      </c>
-      <c r="B29">
-        <v>2</v>
-      </c>
-      <c r="C29" s="3">
-        <v>0</v>
-      </c>
-      <c r="D29" s="3">
-        <v>0</v>
-      </c>
+      <c r="C29" s="1"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <f t="shared" si="2"/>
-        <v>64</v>
-      </c>
-      <c r="B30">
-        <v>2</v>
-      </c>
-      <c r="C30" s="3">
-        <v>0</v>
-      </c>
-      <c r="D30" s="3">
-        <v>0</v>
-      </c>
+      <c r="C30" s="1"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <f t="shared" si="2"/>
-        <v>65</v>
-      </c>
-      <c r="B31">
-        <v>2</v>
-      </c>
-      <c r="C31" s="3">
-        <v>0</v>
-      </c>
-      <c r="D31" s="3">
-        <v>0</v>
-      </c>
+      <c r="C31" s="1"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <f t="shared" si="2"/>
-        <v>66</v>
-      </c>
-      <c r="B32">
-        <v>2</v>
-      </c>
-      <c r="C32" s="3">
-        <v>0</v>
-      </c>
-      <c r="D32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <f t="shared" si="2"/>
-        <v>67</v>
-      </c>
-      <c r="B33">
-        <v>2</v>
-      </c>
-      <c r="C33" s="3">
-        <v>0</v>
-      </c>
-      <c r="D33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <f t="shared" si="2"/>
-        <v>68</v>
-      </c>
-      <c r="B34">
-        <v>2</v>
-      </c>
-      <c r="C34" s="3">
-        <v>0</v>
-      </c>
-      <c r="D34" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C35" s="4"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C36" s="4"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C37" s="4"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C38" s="4"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C39" s="4"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C40" s="4"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C41" s="4"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C42" s="4"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C43" s="4"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C44" s="4"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C45" s="4"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C46" s="4"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C47" s="4"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C48" s="4"/>
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C39" s="1"/>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C40" s="1"/>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C41" s="1"/>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C42" s="1"/>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C43" s="1"/>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C44" s="1"/>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C45" s="1"/>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C46" s="1"/>
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C47" s="1"/>
+    </row>
+    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C48" s="1"/>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C49" s="4"/>
+      <c r="C49" s="1"/>
     </row>
     <row r="50" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C50" s="4"/>
+      <c r="C50" s="1"/>
     </row>
     <row r="51" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C51" s="4"/>
+      <c r="C51" s="1"/>
     </row>
     <row r="52" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C52" s="4"/>
+      <c r="C52" s="1"/>
     </row>
     <row r="53" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C53" s="4"/>
+      <c r="C53" s="1"/>
     </row>
     <row r="54" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C54" s="4"/>
+      <c r="C54" s="1"/>
     </row>
     <row r="55" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C55" s="4"/>
+      <c r="C55" s="1"/>
     </row>
     <row r="56" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C56" s="4"/>
+      <c r="C56" s="1"/>
     </row>
     <row r="57" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C57" s="4"/>
+      <c r="C57" s="1"/>
     </row>
     <row r="58" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C58" s="4"/>
+      <c r="C58" s="1"/>
     </row>
     <row r="59" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C59" s="4"/>
+      <c r="C59" s="1"/>
     </row>
     <row r="60" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C60" s="4"/>
+      <c r="C60" s="1"/>
     </row>
     <row r="61" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C61" s="4"/>
+      <c r="C61" s="1"/>
     </row>
     <row r="62" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C62" s="4"/>
+      <c r="C62" s="1"/>
     </row>
     <row r="63" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C63" s="4"/>
+      <c r="C63" s="1"/>
     </row>
     <row r="64" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C64" s="4"/>
+      <c r="C64" s="1"/>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C65" s="4"/>
+      <c r="C65" s="1"/>
     </row>
     <row r="66" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C66" s="4"/>
+      <c r="C66" s="1"/>
     </row>
     <row r="67" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C67" s="4"/>
+      <c r="C67" s="1"/>
     </row>
     <row r="68" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C68" s="4"/>
+      <c r="C68" s="1"/>
     </row>
     <row r="69" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C69" s="4"/>
+      <c r="C69" s="1"/>
     </row>
     <row r="70" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C70" s="4"/>
+      <c r="C70" s="1"/>
     </row>
     <row r="71" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C71" s="4"/>
+      <c r="C71" s="1"/>
     </row>
     <row r="72" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C72" s="4"/>
+      <c r="C72" s="1"/>
     </row>
     <row r="73" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C73" s="4"/>
+      <c r="C73" s="1"/>
     </row>
     <row r="74" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C74" s="4"/>
+      <c r="C74" s="1"/>
     </row>
     <row r="75" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C75" s="4"/>
+      <c r="C75" s="1"/>
     </row>
     <row r="76" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C76" s="4"/>
+      <c r="C76" s="1"/>
     </row>
     <row r="77" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C77" s="4"/>
+      <c r="C77" s="1"/>
     </row>
     <row r="78" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C78" s="4"/>
-    </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C79" s="4"/>
-    </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C80" s="4"/>
-    </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C81" s="4"/>
-    </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C82" s="4"/>
-    </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C83" s="4"/>
-    </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C84" s="4"/>
-    </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C85" s="4"/>
-    </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C86" s="4"/>
-    </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C87" s="4"/>
-    </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C88" s="4"/>
-    </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C89" s="4"/>
+      <c r="C78" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
